--- a/sellingReportBuchhandlung.xlsx
+++ b/sellingReportBuchhandlung.xlsx
@@ -64,7 +64,7 @@
     <t>Ich bin dann mal nackt</t>
   </si>
   <si>
-    <t>Joachim Meyerhoff: Die Zweisamkeit der Einzelgänge</t>
+    <t>Joachim Meyerhoff: Die Zweisamkeit der Einzelgänger</t>
   </si>
   <si>
     <t>Schwester</t>

--- a/sellingReportBuchhandlung.xlsx
+++ b/sellingReportBuchhandlung.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Haus Nr.</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Frauen und Kinder zuletzt</t>
   </si>
   <si>
-    <t>Der Strom</t>
-  </si>
-  <si>
     <t>Die Hochhausspringerin</t>
   </si>
   <si>
@@ -55,7 +52,7 @@
     <t>Franzobel: Die Eroberung Amerikas</t>
   </si>
   <si>
-    <t>Ilija Trojanow: Doppelte Spur</t>
+    <t>Gert Loschütz: Ballade vom Tag, der nicht vorüber ist</t>
   </si>
   <si>
     <t>Europas längster Sommer</t>
@@ -67,19 +64,25 @@
     <t>Joachim Meyerhoff: Die Zweisamkeit der Einzelgänger</t>
   </si>
   <si>
+    <t>Der Sturm</t>
+  </si>
+  <si>
+    <t>Steine schmeißen</t>
+  </si>
+  <si>
+    <t>Ralf Rothmann: Hotel der Schlaflosen</t>
+  </si>
+  <si>
+    <t>Die Glasschwestern</t>
+  </si>
+  <si>
+    <t>Testlesung</t>
+  </si>
+  <si>
     <t>Schwester</t>
   </si>
   <si>
-    <t>Steine schmeißen</t>
-  </si>
-  <si>
-    <t>Ralf Rothmann: Hotel der Schlaflosen</t>
-  </si>
-  <si>
-    <t>Die Glasschwestern</t>
-  </si>
-  <si>
-    <t>Testlesung</t>
+    <t>Test2</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -148,7 +151,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>5</v>
@@ -165,7 +168,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
@@ -182,7 +185,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
@@ -199,7 +202,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>8</v>
@@ -216,7 +219,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -233,7 +236,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>10</v>
@@ -250,7 +253,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>11</v>
@@ -267,7 +270,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>12</v>
@@ -284,7 +287,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>13</v>
@@ -301,7 +304,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>14</v>
@@ -318,7 +321,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>15</v>
@@ -352,7 +355,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="0" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>17</v>
@@ -369,7 +372,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>18</v>
@@ -386,7 +389,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="0" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>19</v>
@@ -403,7 +406,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>20</v>
@@ -420,24 +423,24 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>20</v>
+        <v>0.01</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="0" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>22</v>
@@ -446,10 +449,27 @@
         <v>0</v>
       </c>
       <c r="D19" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="E19" s="1" t="n">
-        <v>0</v>
+      <c r="E20" s="1" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/sellingReportBuchhandlung.xlsx
+++ b/sellingReportBuchhandlung.xlsx
@@ -210,7 +210,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>20</v>
@@ -222,7 +222,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -302,7 +302,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>20</v>
@@ -314,7 +314,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="9:9">
@@ -348,7 +348,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>20</v>
@@ -360,7 +360,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="11:11">
@@ -371,7 +371,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>20</v>
@@ -383,7 +383,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="12:12">
